--- a/data/trans_dic/BARTHEL_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Provincia-trans_dic.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>74,46%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>63,54%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>86,62%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>92,07%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>68,35%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>9,97%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>77,02; 97,5</t>
+          <t>2,58; 23,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60,41; 85,5</t>
+          <t>14,41; 39,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,33; 98,46</t>
+          <t>1,53; 13,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>81,71; 100,0</t>
+          <t>0,0; 18,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>49,26; 77,65</t>
+          <t>22,4; 51,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>79,58; 92,5</t>
+          <t>7,66; 21,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,11; 96,57</t>
+          <t>2,83; 15,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>57,37; 77,61</t>
+          <t>21,85; 42,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>85,0; 94,13</t>
+          <t>6,33; 15,23</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>83,71%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>86,12%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>65,76%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>77,88%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>72,05%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>89,92%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>73,6%</t>
+          <t>26,4%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>84,71%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>78,1%</t>
+          <t>21,9%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,94; 98,56</t>
+          <t>1,45; 10,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,53; 92,79</t>
+          <t>8,28; 28,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,57; 97,41</t>
+          <t>2,29; 12,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,54; 93,61</t>
+          <t>6,57; 20,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>77,42; 92,29</t>
+          <t>7,97; 21,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,82; 74,57</t>
+          <t>25,06; 44,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>68,59; 86,02</t>
+          <t>14,26; 32,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,67; 77,64</t>
+          <t>22,34; 34,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>84,59; 93,93</t>
+          <t>6,1; 16,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>66,16; 79,86</t>
+          <t>20,4; 35,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>78,7; 89,57</t>
+          <t>10,28; 21,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>73,24; 82,6</t>
+          <t>17,41; 26,96</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>83,38%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74,75%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>86,72%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>77,25%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>73,36%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>79,77%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>90,7%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>73,99%</t>
+          <t>26,01%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,21; 98,25</t>
+          <t>1,77; 15,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,08; 92,38</t>
+          <t>7,59; 30,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,12; 96,43</t>
+          <t>3,04; 16,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>67,01; 81,92</t>
+          <t>17,64; 33,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>77,4; 93,33</t>
+          <t>6,67; 22,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,71; 86,07</t>
+          <t>14,38; 33,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,36; 96,74</t>
+          <t>4,43; 19,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>65,8; 79,58</t>
+          <t>19,52; 34,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,4; 93,96</t>
+          <t>6,07; 17,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>71,57; 85,75</t>
+          <t>14,0; 28,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>83,52; 94,72</t>
+          <t>4,76; 15,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>68,4; 78,65</t>
+          <t>21,07; 31,67</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>83,06%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>90,52%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>84,31%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,37%</t>
+          <t>31,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>77,74%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>79,69%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>89,0%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>76,07%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>79,94%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>84,2%</t>
+          <t>15,8%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,36; 98,51</t>
+          <t>1,23; 11,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,31; 91,34</t>
+          <t>9,18; 22,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,11; 90,4</t>
+          <t>9,5; 27,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,27; 95,37</t>
+          <t>5,02; 16,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>74,01; 91,54</t>
+          <t>8,45; 26,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,11; 75,94</t>
+          <t>23,53; 40,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,78; 86,71</t>
+          <t>13,72; 33,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>74,4; 84,31</t>
+          <t>15,86; 26,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82,75; 93,74</t>
+          <t>6,39; 17,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>69,81; 81,09</t>
+          <t>18,98; 29,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>72,47; 86,04</t>
+          <t>13,83; 27,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>80,41; 87,73</t>
+          <t>12,4; 19,84</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>82,45%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>78,79%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>82,37%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>78,96%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>70,73%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>77,83%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>76,62%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>80,41%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>73,85%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>86,16%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>78,74%</t>
+          <t>21,26%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>67,67; 91,89</t>
+          <t>6,38; 33,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>58,74; 92,46</t>
+          <t>7,25; 39,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,35; 100,0</t>
+          <t>0,0; 12,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>72,37; 90,25</t>
+          <t>9,94; 28,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>63,62; 91,24</t>
+          <t>10,59; 37,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>58,2; 83,57</t>
+          <t>16,43; 41,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>64,67; 88,81</t>
+          <t>11,18; 35,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68,45; 82,67</t>
+          <t>16,69; 30,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>69,7; 88,8</t>
+          <t>11,14; 29,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62,34; 82,87</t>
+          <t>17,45; 36,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>78,18; 92,43</t>
+          <t>7,71; 23,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>72,81; 83,88</t>
+          <t>16,2; 26,99</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>79,32%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>77,34%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>86,39%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>72,79%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>67,2%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>67,28%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>88,72%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>74,74%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>72,27%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>72,06%</t>
+          <t>27,94%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,1; 98,01</t>
+          <t>1,98; 18,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>64,98; 87,63</t>
+          <t>12,46; 36,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>67,79; 89,38</t>
+          <t>11,76; 32,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>70,0; 83,96</t>
+          <t>16,3; 29,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>75,26; 93,51</t>
+          <t>6,49; 24,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>60,99; 82,06</t>
+          <t>17,94; 39,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,9; 79,47</t>
+          <t>22,16; 47,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>60,04; 74,11</t>
+          <t>25,97; 39,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>81,41; 93,66</t>
+          <t>6,4; 18,6</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>66,86; 82,16</t>
+          <t>18,56; 34,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>62,76; 80,05</t>
+          <t>20,16; 37,63</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>66,75; 76,73</t>
+          <t>23,43; 33,31</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>85,3%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>86,9%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>78,2%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>73,07%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>86,05%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>81,33%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>79,04%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>86,7%</t>
+          <t>13,3%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>90,85; 98,41</t>
+          <t>1,55; 9,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75,56; 91,03</t>
+          <t>8,28; 24,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>79,8; 91,95</t>
+          <t>7,5; 19,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>81,63; 92,51</t>
+          <t>7,17; 18,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,62; 98,35</t>
+          <t>1,54; 8,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>69,71; 84,69</t>
+          <t>14,93; 29,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>64,77; 80,83</t>
+          <t>19,36; 35,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>73,05; 95,17</t>
+          <t>4,38; 26,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>92,92; 98,02</t>
+          <t>2,05; 7,12</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>75,31; 86,01</t>
+          <t>13,74; 25,33</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>73,99; 84,24</t>
+          <t>15,55; 26,95</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>79,85; 94,25</t>
+          <t>5,37; 20,05</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>86,89%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>80,9%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>80,47%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>86,6%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>80,93%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>83,43%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>84,92%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>88,45%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>85,32%</t>
+          <t>14,68%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>79,3; 92,3</t>
+          <t>7,48; 20,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>83,07; 95,44</t>
+          <t>4,43; 16,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,27; 94,89</t>
+          <t>4,55; 15,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>86,84; 94,29</t>
+          <t>5,58; 12,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>73,11; 86,75</t>
+          <t>12,97; 26,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>72,93; 85,97</t>
+          <t>13,54; 26,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>79,8; 91,28</t>
+          <t>7,81; 19,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>76,12; 85,01</t>
+          <t>15,08; 24,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>78,1; 87,7</t>
+          <t>11,95; 21,35</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>79,78; 88,62</t>
+          <t>11,0; 19,54</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>83,68; 91,74</t>
+          <t>8,07; 16,19</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>81,93; 88,09</t>
+          <t>11,75; 17,82</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>85,07%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>86,54%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>74,1%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>78,31%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>79,31%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>82,56%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>82,32%</t>
+          <t>17,68%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>89,27; 93,8</t>
+          <t>5,92; 10,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>81,6; 88,02</t>
+          <t>11,89; 18,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>85,45; 90,5</t>
+          <t>9,5; 14,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>84,47; 88,87</t>
+          <t>11,44; 15,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>83,57; 88,85</t>
+          <t>10,99; 16,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>71,01; 77,55</t>
+          <t>22,56; 29,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>74,86; 81,24</t>
+          <t>18,82; 25,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>75,93; 85,59</t>
+          <t>14,21; 23,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>87,01; 90,64</t>
+          <t>9,27; 12,92</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>76,44; 81,03</t>
+          <t>18,92; 23,65</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>80,27; 84,55</t>
+          <t>15,38; 19,79</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>80,5; 86,02</t>
+          <t>13,94; 19,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/BARTHEL_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 23,35</t>
+          <t>2,55; 22,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,41; 39,19</t>
+          <t>12,61; 38,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,29</t>
+          <t>0,0; 19,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,4; 51,3</t>
+          <t>21,74; 52,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,83; 15,91</t>
+          <t>2,92; 16,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,85; 42,66</t>
+          <t>22,52; 43,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 10,96</t>
+          <t>1,45; 12,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,28; 28,62</t>
+          <t>8,13; 29,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 12,05</t>
+          <t>2,09; 12,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,97; 21,35</t>
+          <t>7,71; 22,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,06; 44,84</t>
+          <t>24,45; 43,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,26; 32,4</t>
+          <t>14,92; 32,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 16,54</t>
+          <t>5,74; 15,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,4; 35,01</t>
+          <t>19,51; 33,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,28; 21,86</t>
+          <t>10,01; 21,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 15,59</t>
+          <t>1,74; 15,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 30,06</t>
+          <t>7,55; 29,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 16,78</t>
+          <t>3,58; 17,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,67; 22,6</t>
+          <t>6,73; 21,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,38; 33,65</t>
+          <t>14,76; 33,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,43; 19,96</t>
+          <t>4,13; 20,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 17,3</t>
+          <t>5,71; 16,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,0; 28,93</t>
+          <t>14,0; 28,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 15,55</t>
+          <t>4,9; 15,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 11,2</t>
+          <t>1,49; 13,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,18; 22,74</t>
+          <t>8,69; 23,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,5; 27,55</t>
+          <t>9,91; 27,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,45; 26,81</t>
+          <t>8,43; 25,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,53; 40,05</t>
+          <t>23,15; 39,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,72; 33,99</t>
+          <t>13,54; 33,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 17,17</t>
+          <t>6,42; 17,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,98; 29,74</t>
+          <t>18,8; 30,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,83; 27,89</t>
+          <t>13,5; 27,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,38; 33,37</t>
+          <t>8,12; 34,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,25; 39,33</t>
+          <t>9,54; 39,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,71</t>
+          <t>0,0; 11,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,59; 37,39</t>
+          <t>10,93; 36,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,43; 41,8</t>
+          <t>18,77; 44,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,18; 35,85</t>
+          <t>11,65; 36,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,14; 29,38</t>
+          <t>11,02; 30,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,45; 36,89</t>
+          <t>16,18; 37,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,71; 23,57</t>
+          <t>7,1; 21,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 18,87</t>
+          <t>1,99; 17,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,46; 36,75</t>
+          <t>12,48; 36,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,76; 32,09</t>
+          <t>10,39; 31,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,49; 24,74</t>
+          <t>6,57; 24,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,94; 39,01</t>
+          <t>16,78; 38,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,16; 47,98</t>
+          <t>21,46; 47,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,4; 18,6</t>
+          <t>6,03; 19,18</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,56; 34,53</t>
+          <t>18,19; 33,16</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>20,16; 37,63</t>
+          <t>19,46; 37,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,55; 9,09</t>
+          <t>1,56; 8,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,28; 24,03</t>
+          <t>8,46; 23,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,5; 19,76</t>
+          <t>7,72; 20,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 8,75</t>
+          <t>1,53; 9,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,93; 29,87</t>
+          <t>15,86; 29,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,36; 35,58</t>
+          <t>19,04; 35,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 7,12</t>
+          <t>2,12; 7,3</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,74; 25,33</t>
+          <t>13,95; 24,68</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,55; 26,95</t>
+          <t>16,31; 26,38</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,48; 20,45</t>
+          <t>7,9; 20,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,43; 16,33</t>
+          <t>4,54; 16,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,55; 15,48</t>
+          <t>4,93; 15,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,97; 26,41</t>
+          <t>13,26; 27,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,54; 26,73</t>
+          <t>14,01; 26,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,81; 19,49</t>
+          <t>8,47; 19,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,95; 21,35</t>
+          <t>12,47; 22,4</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>11,0; 19,54</t>
+          <t>10,99; 19,67</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,07; 16,19</t>
+          <t>8,09; 15,98</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,92; 10,39</t>
+          <t>5,96; 10,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,89; 18,5</t>
+          <t>11,73; 18,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,5; 14,6</t>
+          <t>9,7; 14,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,99; 16,24</t>
+          <t>11,12; 16,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,56; 29,13</t>
+          <t>22,85; 29,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,82; 25,13</t>
+          <t>18,61; 24,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,27; 12,92</t>
+          <t>9,39; 13,09</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>18,92; 23,65</t>
+          <t>18,81; 23,57</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>15,38; 19,79</t>
+          <t>15,43; 19,67</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/BARTHEL_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Barthel)</t>
+          <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 22,74</t>
+          <t>2,5; 22,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,61; 38,38</t>
+          <t>14,5; 39,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 13,34</t>
+          <t>1,54; 14,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,13</t>
+          <t>0,0; 18,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,74; 52,38</t>
+          <t>22,35; 50,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,66; 21,19</t>
+          <t>7,5; 20,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,92; 16,28</t>
+          <t>3,43; 15,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22,52; 43,07</t>
+          <t>22,39; 42,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 15,23</t>
+          <t>5,87; 15,0</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 12,23</t>
+          <t>1,44; 12,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,13; 29,78</t>
+          <t>7,21; 27,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 12,78</t>
+          <t>2,59; 13,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,57; 20,48</t>
+          <t>6,39; 19,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,71; 22,53</t>
+          <t>7,71; 22,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,45; 43,98</t>
+          <t>25,43; 44,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,92; 32,27</t>
+          <t>13,98; 31,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,34; 34,29</t>
+          <t>22,36; 34,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 15,48</t>
+          <t>6,07; 15,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,51; 33,78</t>
+          <t>20,14; 33,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,01; 21,04</t>
+          <t>10,43; 21,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,41; 26,96</t>
+          <t>17,4; 26,76</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 15,21</t>
+          <t>1,75; 15,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,55; 29,36</t>
+          <t>7,62; 30,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 17,13</t>
+          <t>3,57; 15,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,64; 33,23</t>
+          <t>18,08; 32,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 21,9</t>
+          <t>6,67; 22,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,76; 33,46</t>
+          <t>13,93; 33,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 20,83</t>
+          <t>3,26; 20,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,52; 34,01</t>
+          <t>20,42; 34,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 16,52</t>
+          <t>6,04; 16,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,0; 28,61</t>
+          <t>14,25; 28,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 15,3</t>
+          <t>5,28; 16,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,07; 31,67</t>
+          <t>21,35; 31,6</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 13,13</t>
+          <t>1,49; 12,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,69; 23,06</t>
+          <t>8,66; 22,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,91; 27,55</t>
+          <t>9,6; 27,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 16,25</t>
+          <t>4,63; 15,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,43; 25,46</t>
+          <t>8,46; 25,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,15; 39,82</t>
+          <t>24,06; 39,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,54; 33,61</t>
+          <t>13,29; 33,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,86; 26,04</t>
+          <t>15,69; 25,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 17,33</t>
+          <t>6,26; 17,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,8; 30,13</t>
+          <t>18,91; 30,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,5; 27,64</t>
+          <t>13,96; 27,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,4; 19,84</t>
+          <t>12,27; 19,59</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 34,63</t>
+          <t>8,11; 32,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,54; 39,35</t>
+          <t>7,54; 41,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,82</t>
+          <t>0,0; 13,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,94; 28,38</t>
+          <t>9,75; 27,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,93; 36,01</t>
+          <t>8,76; 36,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,77; 44,49</t>
+          <t>16,43; 41,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,65; 36,09</t>
+          <t>11,19; 35,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,69; 30,34</t>
+          <t>17,33; 31,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,02; 30,36</t>
+          <t>11,2; 30,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,18; 37,12</t>
+          <t>17,13; 37,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,1; 21,94</t>
+          <t>7,57; 21,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,2; 26,99</t>
+          <t>16,12; 27,19</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,99; 17,58</t>
+          <t>1,99; 17,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,48; 36,76</t>
+          <t>12,37; 35,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,39; 31,86</t>
+          <t>10,62; 32,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,3; 29,97</t>
+          <t>16,04; 30,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,57; 24,55</t>
+          <t>6,49; 24,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,78; 38,84</t>
+          <t>17,94; 39,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,46; 47,84</t>
+          <t>20,53; 46,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,97; 39,33</t>
+          <t>25,89; 39,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,03; 19,18</t>
+          <t>6,34; 18,59</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,19; 33,16</t>
+          <t>17,84; 33,14</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>19,46; 37,08</t>
+          <t>19,95; 37,24</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>23,43; 33,31</t>
+          <t>23,27; 33,25</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,56; 8,59</t>
+          <t>1,59; 9,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,46; 23,38</t>
+          <t>8,97; 24,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,72; 20,26</t>
+          <t>8,05; 20,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,17; 18,03</t>
+          <t>7,49; 18,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,53; 9,41</t>
+          <t>1,65; 9,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,86; 29,78</t>
+          <t>15,31; 30,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,04; 35,42</t>
+          <t>19,17; 35,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,38; 26,4</t>
+          <t>4,83; 26,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 7,3</t>
+          <t>1,98; 7,08</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,95; 24,68</t>
+          <t>13,99; 24,69</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>16,31; 26,38</t>
+          <t>15,76; 26,01</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,37; 20,05</t>
+          <t>5,75; 20,15</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,9; 20,58</t>
+          <t>7,7; 20,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,54; 16,72</t>
+          <t>4,56; 16,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,93; 15,6</t>
+          <t>5,11; 15,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,58; 12,66</t>
+          <t>5,71; 13,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,26; 27,02</t>
+          <t>13,25; 26,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,01; 26,53</t>
+          <t>14,03; 27,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,47; 19,73</t>
+          <t>8,72; 20,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,08; 24,08</t>
+          <t>14,99; 23,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,47; 22,4</t>
+          <t>12,3; 21,9</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,99; 19,67</t>
+          <t>11,38; 20,22</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,09; 15,98</t>
+          <t>8,26; 16,32</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,75; 17,82</t>
+          <t>11,91; 18,07</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,96; 10,58</t>
+          <t>6,2; 10,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,73; 18,75</t>
+          <t>11,98; 18,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,7; 14,88</t>
+          <t>9,5; 14,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,44; 15,35</t>
+          <t>11,13; 15,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,12; 16,32</t>
+          <t>11,15; 16,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,85; 29,4</t>
+          <t>22,45; 28,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,61; 24,98</t>
+          <t>18,76; 25,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,21; 23,96</t>
+          <t>14,41; 24,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,39; 13,09</t>
+          <t>9,36; 12,99</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>18,81; 23,57</t>
+          <t>18,97; 23,56</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>15,43; 19,67</t>
+          <t>15,45; 19,73</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>13,94; 19,46</t>
+          <t>13,98; 19,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/BARTHEL_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Provincia-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>90,05%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>74,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>63,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>86,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>92,07%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,78%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>90,26%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 22,98</t>
+          <t>77,02; 97,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>70,05; 93,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,5; 39,59</t>
+          <t>60,41; 85,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 14,67</t>
+          <t>85,47; 98,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,29</t>
+          <t>81,71; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,59; 67,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,35; 50,74</t>
+          <t>49,26; 77,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,5; 20,42</t>
+          <t>79,85; 92,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 15,89</t>
+          <t>84,11; 96,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,98; 78,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22,39; 42,63</t>
+          <t>57,37; 77,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 15,0</t>
+          <t>85,29; 94,24</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>83,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>88,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>65,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>77,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>72,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>89,92%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>73,6%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>78,53%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 12,06</t>
+          <t>87,94; 98,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 27,47</t>
+          <t>72,53; 92,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 13,43</t>
+          <t>86,57; 97,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,39; 19,46</t>
+          <t>80,65; 93,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,71; 22,58</t>
+          <t>77,42; 92,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,43; 44,18</t>
+          <t>55,82; 74,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,98; 31,41</t>
+          <t>68,59; 86,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,36; 34,33</t>
+          <t>66,32; 77,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 15,41</t>
+          <t>84,59; 93,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,14; 33,84</t>
+          <t>66,16; 79,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,43; 21,3</t>
+          <t>78,7; 89,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,4; 26,76</t>
+          <t>73,72; 82,91</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>94,24%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>83,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>75,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>86,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>77,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>73,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>79,77%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>90,7%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>74,3%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 15,79</t>
+          <t>84,21; 98,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,62; 30,92</t>
+          <t>69,08; 92,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 15,88</t>
+          <t>84,12; 96,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,08; 32,99</t>
+          <t>67,4; 81,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,67; 22,6</t>
+          <t>77,4; 93,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,93; 33,29</t>
+          <t>66,71; 86,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 20,64</t>
+          <t>79,36; 96,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,42; 34,2</t>
+          <t>66,35; 79,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,04; 16,6</t>
+          <t>83,4; 93,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,25; 28,43</t>
+          <t>71,57; 85,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,28; 16,48</t>
+          <t>83,52; 94,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,35; 31,6</t>
+          <t>68,3; 78,82</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>86,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>83,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>84,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,63%</t>
+          <t>76,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>77,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>79,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>89,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>80,61%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>79,94%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>84,36%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 12,64</t>
+          <t>87,36; 98,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 22,69</t>
+          <t>75,93; 93,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,6; 27,89</t>
+          <t>72,11; 90,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 15,73</t>
+          <t>84,58; 95,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,46; 25,99</t>
+          <t>74,01; 91,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,06; 39,89</t>
+          <t>66,05; 83,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,29; 33,22</t>
+          <t>66,78; 86,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,69; 25,6</t>
+          <t>74,58; 84,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,26; 17,25</t>
+          <t>82,75; 93,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,91; 30,19</t>
+          <t>73,52; 86,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,96; 27,53</t>
+          <t>72,47; 86,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 19,59</t>
+          <t>80,6; 87,79</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>82,45%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>78,79%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>82,51%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>78,96%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>70,73%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>77,83%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>77,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>80,41%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>73,85%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>86,16%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>79,04%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,11; 32,33</t>
+          <t>67,67; 91,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,54; 41,26</t>
+          <t>58,74; 92,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,65</t>
+          <t>86,35; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,75; 27,63</t>
+          <t>72,6; 90,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,76; 36,38</t>
+          <t>63,62; 91,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,43; 41,8</t>
+          <t>58,2; 83,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,19; 35,33</t>
+          <t>64,67; 88,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,33; 31,55</t>
+          <t>69,04; 82,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,2; 30,3</t>
+          <t>69,7; 88,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,13; 37,66</t>
+          <t>62,34; 82,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,57; 21,82</t>
+          <t>78,18; 92,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,12; 27,19</t>
+          <t>73,31; 84,21</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>77,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>79,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>77,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>86,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>72,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>32,72%</t>
+          <t>67,25%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>88,72%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>74,74%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>72,27%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>72,13%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,99; 17,9</t>
+          <t>82,1; 98,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,37; 35,02</t>
+          <t>64,98; 87,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,62; 32,21</t>
+          <t>67,79; 89,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,04; 30,0</t>
+          <t>70,08; 84,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,49; 24,74</t>
+          <t>75,26; 93,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,94; 39,01</t>
+          <t>60,99; 82,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,53; 46,1</t>
+          <t>53,9; 79,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,89; 39,96</t>
+          <t>59,98; 74,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,34; 18,59</t>
+          <t>81,41; 93,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,84; 33,14</t>
+          <t>66,86; 82,16</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>19,95; 37,24</t>
+          <t>62,76; 80,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>23,27; 33,25</t>
+          <t>66,88; 76,93</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>85,3%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>86,9%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>78,2%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>73,07%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>90,44%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>81,33%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>79,04%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>89,84%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 9,15</t>
+          <t>90,85; 98,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,97; 24,44</t>
+          <t>75,56; 91,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,05; 20,2</t>
+          <t>79,8; 91,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,49; 18,37</t>
+          <t>81,94; 92,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 9,38</t>
+          <t>90,62; 98,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,31; 30,29</t>
+          <t>69,71; 84,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,17; 35,23</t>
+          <t>64,77; 80,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,83; 26,95</t>
+          <t>73,39; 97,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,08</t>
+          <t>92,92; 98,02</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,99; 24,69</t>
+          <t>75,31; 86,01</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,76; 26,01</t>
+          <t>73,99; 84,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,75; 20,15</t>
+          <t>80,27; 96,58</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>86,89%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>90,99%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>90,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>91,28%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>80,9%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>80,47%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>86,6%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>81,72%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>83,43%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>84,92%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>85,94%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,7; 20,7</t>
+          <t>79,3; 92,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,56; 16,93</t>
+          <t>83,07; 95,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,11; 15,73</t>
+          <t>84,27; 94,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,71; 13,16</t>
+          <t>87,23; 94,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,25; 26,89</t>
+          <t>73,11; 86,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,03; 27,07</t>
+          <t>72,93; 85,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,72; 20,2</t>
+          <t>79,8; 91,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,99; 23,88</t>
+          <t>77,66; 85,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,3; 21,9</t>
+          <t>78,1; 87,7</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>11,38; 20,22</t>
+          <t>79,78; 88,62</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,26; 16,32</t>
+          <t>83,68; 91,74</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,91; 18,07</t>
+          <t>82,77; 88,56</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>92,06%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>85,07%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>88,15%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>86,54%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>74,1%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>78,31%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>81,7%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>78,81%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>82,56%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>83,7%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,2; 10,73</t>
+          <t>89,27; 93,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,98; 18,4</t>
+          <t>81,6; 88,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,5; 14,55</t>
+          <t>85,45; 90,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,13; 15,53</t>
+          <t>84,71; 89,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,15; 16,43</t>
+          <t>83,57; 88,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,45; 28,99</t>
+          <t>71,01; 77,55</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,76; 25,14</t>
+          <t>74,86; 81,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,41; 24,07</t>
+          <t>76,46; 89,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,36; 12,99</t>
+          <t>87,01; 90,64</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>18,97; 23,56</t>
+          <t>76,44; 81,03</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>15,45; 19,73</t>
+          <t>80,27; 84,55</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>13,98; 19,5</t>
+          <t>81,1; 89,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/BARTHEL_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>77,02; 97,5</t>
+          <t>77,79; 97,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,05; 93,32</t>
+          <t>70,68; 93,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60,41; 85,5</t>
+          <t>58,82; 85,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,47; 98,43</t>
+          <t>86,14; 98,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>81,71; 100,0</t>
+          <t>79,75; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,59; 67,61</t>
+          <t>40,2; 68,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>49,26; 77,65</t>
+          <t>47,83; 77,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>79,85; 92,63</t>
+          <t>78,45; 92,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,11; 96,57</t>
+          <t>83,96; 97,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>57,98; 78,2</t>
+          <t>57,49; 77,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>57,37; 77,61</t>
+          <t>57,39; 77,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>85,29; 94,24</t>
+          <t>84,97; 93,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,94; 98,56</t>
+          <t>88,14; 98,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,53; 92,79</t>
+          <t>71,1; 91,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,57; 97,41</t>
+          <t>87,19; 97,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,65; 93,63</t>
+          <t>80,32; 93,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>77,42; 92,29</t>
+          <t>77,62; 92,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,82; 74,57</t>
+          <t>56,04; 74,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>68,59; 86,02</t>
+          <t>68,39; 86,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>66,32; 77,85</t>
+          <t>66,79; 78,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>84,59; 93,93</t>
+          <t>84,57; 94,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>66,16; 79,86</t>
+          <t>66,14; 80,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>78,7; 89,57</t>
+          <t>78,78; 89,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>73,72; 82,91</t>
+          <t>73,56; 82,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,21; 98,25</t>
+          <t>84,51; 98,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,08; 92,38</t>
+          <t>71,0; 92,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,12; 96,43</t>
+          <t>83,62; 97,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>67,4; 81,92</t>
+          <t>67,18; 82,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>77,4; 93,33</t>
+          <t>77,69; 93,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,71; 86,07</t>
+          <t>66,44; 85,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,36; 96,74</t>
+          <t>79,39; 95,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>66,35; 79,94</t>
+          <t>66,26; 80,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,4; 93,96</t>
+          <t>82,89; 94,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>71,57; 85,75</t>
+          <t>72,48; 86,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>83,52; 94,72</t>
+          <t>84,0; 95,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>68,3; 78,82</t>
+          <t>68,83; 79,01</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,36; 98,51</t>
+          <t>88,81; 98,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>75,93; 93,52</t>
+          <t>75,77; 93,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,11; 90,4</t>
+          <t>71,51; 90,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,58; 95,5</t>
+          <t>84,71; 95,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>74,01; 91,54</t>
+          <t>74,68; 91,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,05; 83,92</t>
+          <t>66,61; 84,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,78; 86,71</t>
+          <t>64,52; 86,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>74,58; 84,42</t>
+          <t>74,68; 84,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82,75; 93,74</t>
+          <t>82,22; 93,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73,52; 86,48</t>
+          <t>73,35; 86,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>72,47; 86,04</t>
+          <t>73,1; 86,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>80,6; 87,79</t>
+          <t>80,43; 87,67</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>67,67; 91,89</t>
+          <t>67,36; 93,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>58,74; 92,46</t>
+          <t>62,0; 90,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,35; 100,0</t>
+          <t>86,69; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>72,6; 90,19</t>
+          <t>71,74; 90,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>63,62; 91,24</t>
+          <t>63,63; 89,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>58,2; 83,57</t>
+          <t>56,3; 81,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>64,67; 88,81</t>
+          <t>64,03; 88,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>69,04; 82,93</t>
+          <t>69,7; 83,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>69,7; 88,8</t>
+          <t>69,37; 88,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62,34; 82,87</t>
+          <t>62,97; 83,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>78,18; 92,43</t>
+          <t>77,34; 92,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>73,31; 84,21</t>
+          <t>73,05; 83,65</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,1; 98,01</t>
+          <t>82,42; 98,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>64,98; 87,63</t>
+          <t>63,16; 87,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>67,79; 89,38</t>
+          <t>65,76; 88,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>70,08; 84,05</t>
+          <t>69,18; 83,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>75,26; 93,51</t>
+          <t>75,53; 93,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>60,99; 82,06</t>
+          <t>61,19; 82,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,9; 79,47</t>
+          <t>54,05; 79,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>59,98; 74,13</t>
+          <t>59,84; 73,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>81,41; 93,66</t>
+          <t>81,87; 94,36</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>66,86; 82,16</t>
+          <t>66,26; 81,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>62,76; 80,05</t>
+          <t>62,52; 79,63</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>66,88; 76,93</t>
+          <t>66,64; 77,15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>90,85; 98,41</t>
+          <t>90,49; 98,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75,56; 91,03</t>
+          <t>76,19; 91,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>79,8; 91,95</t>
+          <t>79,75; 92,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>81,94; 92,66</t>
+          <t>82,48; 92,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,62; 98,35</t>
+          <t>90,87; 98,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>69,71; 84,69</t>
+          <t>70,18; 84,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>64,77; 80,83</t>
+          <t>64,03; 79,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>73,39; 97,36</t>
+          <t>73,46; 97,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>92,92; 98,02</t>
+          <t>92,5; 97,94</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>75,31; 86,01</t>
+          <t>75,52; 85,91</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>73,99; 84,24</t>
+          <t>73,39; 83,87</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>80,27; 96,58</t>
+          <t>80,41; 96,79</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>79,3; 92,3</t>
+          <t>79,79; 92,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>83,07; 95,44</t>
+          <t>83,24; 95,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,27; 94,89</t>
+          <t>84,51; 94,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>87,23; 94,44</t>
+          <t>87,38; 94,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>73,11; 86,75</t>
+          <t>73,1; 87,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>72,93; 85,97</t>
+          <t>74,0; 86,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>79,8; 91,28</t>
+          <t>80,16; 91,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>77,66; 85,71</t>
+          <t>77,05; 85,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>78,1; 87,7</t>
+          <t>77,69; 87,46</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>79,78; 88,62</t>
+          <t>79,91; 88,89</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>83,68; 91,74</t>
+          <t>83,96; 91,75</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>82,77; 88,56</t>
+          <t>82,46; 88,7</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>89,27; 93,8</t>
+          <t>89,41; 94,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>81,6; 88,02</t>
+          <t>81,53; 88,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>85,45; 90,5</t>
+          <t>85,61; 90,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>84,71; 89,02</t>
+          <t>84,75; 88,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>83,57; 88,85</t>
+          <t>83,56; 89,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>71,01; 77,55</t>
+          <t>70,66; 77,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>74,86; 81,24</t>
+          <t>74,82; 81,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>76,46; 89,86</t>
+          <t>76,29; 89,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>87,01; 90,64</t>
+          <t>86,81; 90,5</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>76,44; 81,03</t>
+          <t>76,52; 81,09</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>80,27; 84,55</t>
+          <t>80,02; 84,51</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>81,1; 89,19</t>
+          <t>80,97; 88,5</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>31866</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>37442</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>28964</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>52630</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>36831</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>26641</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31384</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>55057</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>68697</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>64083</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>60348</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>107687</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27528; 34490</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>31300; 41301</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>22877; 33257</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>48151; 55005</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>31286; 39231</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>19656; 33734</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23624; 38090</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>49741; 58379</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>62647; 72578</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>53566; 72637</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>50665; 68843</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>101379; 112058</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>63654</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>66301</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>81810</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>71112</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>84292</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>67136</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>89740</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>93093</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>147947</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>133437</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>171550</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>58752; 65706</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>56311; 72814</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>76116; 85415</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>64827; 75602</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>75967; 90058</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>57212; 76533</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>78802; 99546</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>85756; 100293</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>139136; 154831</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>119901; 146014</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>159543; 182123</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>153816; 173480</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>48006</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>46475</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>58389</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>55115</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>72428</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>61778</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>71720</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>62964</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>120435</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>108253</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>130109</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>118079</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>43048; 50060</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>39576; 51575</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>53138; 61881</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>49369; 60803</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>64887; 78108</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>53130; 68567</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>63428; 76607</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>56608; 68849</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>111457; 126644</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>98366; 117077</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>120488; 136315</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>109391; 125565</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>52542</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>55297</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>53747</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>67676</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>62654</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>65290</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>71186</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>82749</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>115197</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>120587</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>124932</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>150424</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>48952; 54307</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>48516; 59881</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>46276; 58574</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>63254; 71055</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>55495; 67911</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>57002; 72618</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>59086; 79049</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>77397; 87396</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>106424; 121056</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>109731; 129579</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>114243; 135085</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>143413; 156323</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>24198</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24907</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>40467</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>28294</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>32570</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>35260</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>39327</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>45083</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>56767</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>60167</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>79794</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>73377</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>19767; 27568</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>19599; 28576</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>36481; 42080</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>24603; 30904</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>26243; 37086</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>28069; 40806</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>32355; 44699</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>40810; 48667</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>48970; 62345</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>51297; 67633</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>71625; 85536</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>67818; 77660</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>43509</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>40053</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>38427</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>46651</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>60743</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>51104</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>45283</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>43885</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>104252</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>91157</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>83709</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>90536</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>38901; 46265</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>32688; 45282</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>31859; 42632</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>41687; 50501</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>53102; 65938</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>42966; 57634</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>36422; 53500</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>39048; 48123</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>96200; 110875</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>80815; 99718</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>72415; 92239</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>83646; 96844</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>101563</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>95755</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>97487</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>108027</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>112271</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>107873</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>305247</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>213834</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>206766</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>205359</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>413274</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>95858; 104196</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>85537; 103034</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>89468; 103542</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>101060; 113810</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>106429; 115332</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>99631; 120073</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>94528; 117522</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>247924; 328649</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>206327; 218455</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>191994; 218410</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>190686; 217899</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>369930; 445256</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>97227</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>109872</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>121939</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>133704</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>123957</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>132305</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>152670</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>151683</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>221184</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>242177</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>274609</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>285387</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>89279; 103681</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>100510; 115473</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>113387; 127296</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>127986; 138452</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>112012; 133376</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>121665; 142393</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>141327; 161929</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>143028; 158890</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>205960; 231861</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>227868; 253473</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>260668; 284844</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>273839; 294576</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>462565</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>476102</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>521230</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>563210</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>585747</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>550525</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>609182</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>839761</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1048312</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1026627</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1130412</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1402970</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>449238; 472568</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>456251; 494339</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>506213; 535239</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>549445; 576379</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>565581; 602613</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>524999; 575445</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>582046; 633231</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>784166; 919250</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1023807; 1067262</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>996815; 1056237</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1095662; 1157194</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1357089; 1483384</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>